--- a/data/trans_dic/P79A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79A_R-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.002620738923928386</v>
+        <v>0.002620738923928387</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01089649644727177</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001316115553729977</v>
+        <v>0.001314312128241885</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01478029515373255</v>
+        <v>0.01329771844344717</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07248261670524236</v>
+        <v>0.05262052586200915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02691919779275417</v>
+        <v>0.02945548176675701</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02941294591453147</v>
+        <v>0.02556202112795861</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008694824647887105</v>
+        <v>0.007651719866344897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02134095631748604</v>
+        <v>0.02124648121124538</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07900435352450903</v>
+        <v>0.08027825101979033</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02789305767196679</v>
+        <v>0.027218605678031</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0503872630409179</v>
+        <v>0.05118948391185164</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01109306947618628</v>
+        <v>0.01115406784167855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01530472424980634</v>
+        <v>0.01448723032858593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01686413217153675</v>
+        <v>0.01643391396821337</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04812701251213056</v>
+        <v>0.05151102335471275</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04839730350454959</v>
+        <v>0.04557096487772069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0419178039341409</v>
+        <v>0.04057630711795901</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05037168790789243</v>
+        <v>0.05037168790789244</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.0462546534337302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.04818678642723187</v>
+        <v>0.04818678642723185</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02629241255414109</v>
+        <v>0.02557331124369368</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0274776128946187</v>
+        <v>0.02878910768851769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03172735075331427</v>
+        <v>0.03190796094128019</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09730870569554129</v>
+        <v>0.09412362041476245</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0811417679051825</v>
+        <v>0.08266298722219914</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07531277070279525</v>
+        <v>0.07487064957300844</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001213095934392241</v>
+        <v>0.0009003727512832533</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01414017434267323</v>
+        <v>0.01499190506061873</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0290150636450616</v>
+        <v>0.02946364001397576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01575968979593798</v>
+        <v>0.01582619776958674</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.02559274082152267</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.03904801868062107</v>
+        <v>0.03904801868062106</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.03223281039201563</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01178085682317603</v>
+        <v>0.01205200515018566</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02198634608313434</v>
+        <v>0.0223467104876608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0190580164740774</v>
+        <v>0.02101599891302228</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05036052918997905</v>
+        <v>0.05411766997646353</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06595518493952196</v>
+        <v>0.06754583055538647</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04774742231652949</v>
+        <v>0.0484703580201029</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.026812351895159</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.02169520873935696</v>
+        <v>0.02169520873935697</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008614127308325758</v>
+        <v>0.008763334252383624</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01682399342297296</v>
+        <v>0.01681570679748309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01499264037855595</v>
+        <v>0.01488500193356581</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02893458385855531</v>
+        <v>0.02770654199451264</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04315257665117982</v>
+        <v>0.04071426700006137</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03080258406769096</v>
+        <v>0.03031871246788991</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.01200962813948686</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.01347488822148168</v>
+        <v>0.01347488822148169</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.00794790767793844</v>
+        <v>0.007856645833272009</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.006664892776523261</v>
+        <v>0.006643673257147159</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.008850184024205223</v>
+        <v>0.008642893274686581</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02652243853017028</v>
+        <v>0.02648388639323301</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02029378272551087</v>
+        <v>0.02006909736374586</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01972972529719792</v>
+        <v>0.02035360437583079</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.02255296621645562</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.02333529980206941</v>
+        <v>0.0233352998020694</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01849238473059382</v>
+        <v>0.01840291412788386</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01808032305205098</v>
+        <v>0.01803210890332891</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01933955115180768</v>
+        <v>0.01954293183083654</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03123429551518168</v>
+        <v>0.03148034233396814</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02847806343617626</v>
+        <v>0.02842404184830219</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02784963182532533</v>
+        <v>0.02770982670861228</v>
       </c>
     </row>
     <row r="31">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4713</v>
+        <v>4240</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22909</v>
+        <v>16631</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17091</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15608</v>
+        <v>13564</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4752</v>
+        <v>4182</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22987</v>
+        <v>22885</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41923</v>
+        <v>42599</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15243</v>
+        <v>14875</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54274</v>
+        <v>55138</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3505</v>
+        <v>3525</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5454</v>
+        <v>5163</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11339</v>
+        <v>11050</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15208</v>
+        <v>16277</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17248</v>
+        <v>16241</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28184</v>
+        <v>27282</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9811</v>
+        <v>9543</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11594</v>
+        <v>12148</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25227</v>
+        <v>25370</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36310</v>
+        <v>35122</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34239</v>
+        <v>34881</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59882</v>
+        <v>59530</v>
       </c>
     </row>
     <row r="20">
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>527</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2908</v>
+        <v>3083</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6642</v>
+        <v>6745</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6849</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3189</v>
+        <v>3263</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5799</v>
+        <v>5894</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10186</v>
+        <v>11232</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13633</v>
+        <v>14650</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17396</v>
+        <v>17815</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25519</v>
+        <v>25905</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6199</v>
+        <v>6307</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12989</v>
+        <v>12983</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>22365</v>
+        <v>22205</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20824</v>
+        <v>19940</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>33316</v>
+        <v>31434</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>45950</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>6343</v>
+        <v>6270</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5541</v>
+        <v>5523</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>14421</v>
+        <v>14083</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>21167</v>
+        <v>21136</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16871</v>
+        <v>16684</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>32148</v>
+        <v>33164</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>65329</v>
+        <v>65013</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>67565</v>
+        <v>67385</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>140593</v>
+        <v>142072</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>110343</v>
+        <v>111213</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>106421</v>
+        <v>106219</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>202459</v>
+        <v>201443</v>
       </c>
     </row>
     <row r="40">
